--- a/MOptim/MOptim_Laba2.xlsx
+++ b/MOptim/MOptim_Laba2.xlsx
@@ -5,54 +5,112 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\5_sem\Programs\MOptim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\University\MOptim\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" activeTab="4"/>
+    <workbookView xWindow="1185" yWindow="0" windowWidth="20490" windowHeight="8205" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет о результатах 1" sheetId="2" r:id="rId1"/>
     <sheet name="Отчет об устойчивости 1" sheetId="3" r:id="rId2"/>
     <sheet name="Отчет о пределах 1" sheetId="4" r:id="rId3"/>
     <sheet name="Лист1" sheetId="1" r:id="rId4"/>
-    <sheet name="Лист2" sheetId="5" r:id="rId5"/>
+    <sheet name="Answer Report 1" sheetId="9" r:id="rId5"/>
+    <sheet name="Sensitivity Report 1" sheetId="10" r:id="rId6"/>
+    <sheet name="Limits Report 1" sheetId="11" r:id="rId7"/>
+    <sheet name="Лист2" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="3" hidden="1">Лист1!$B$7:$C$7</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">Лист2!$B$21:$E$25</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">Лист1!$D$3</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">Лист2!$B$26</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">Лист1!$D$4</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">Лист2!$C$26</definedName>
+    <definedName name="solver_lhs3" localSheetId="7" hidden="1">Лист2!$D$26</definedName>
+    <definedName name="solver_lhs4" localSheetId="7" hidden="1">Лист2!$E$26</definedName>
+    <definedName name="solver_lhs5" localSheetId="7" hidden="1">Лист2!$F$21</definedName>
+    <definedName name="solver_lhs6" localSheetId="7" hidden="1">Лист2!$F$22</definedName>
+    <definedName name="solver_lhs7" localSheetId="7" hidden="1">Лист2!$F$23</definedName>
+    <definedName name="solver_lhs8" localSheetId="7" hidden="1">Лист2!$F$24</definedName>
+    <definedName name="solver_lhs9" localSheetId="7" hidden="1">Лист2!$F$25</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">9</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">Лист1!$D$8</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">Лист2!$F$26</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel9" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">Лист1!$F$3</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">Лист2!$B$27</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">Лист1!$F$4</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">Лист2!$C$27</definedName>
+    <definedName name="solver_rhs3" localSheetId="7" hidden="1">Лист2!$D$27</definedName>
+    <definedName name="solver_rhs4" localSheetId="7" hidden="1">Лист2!$E$27</definedName>
+    <definedName name="solver_rhs5" localSheetId="7" hidden="1">Лист2!$G$21</definedName>
+    <definedName name="solver_rhs6" localSheetId="7" hidden="1">Лист2!$G$22</definedName>
+    <definedName name="solver_rhs7" localSheetId="7" hidden="1">Лист2!$G$23</definedName>
+    <definedName name="solver_rhs8" localSheetId="7" hidden="1">Лист2!$G$24</definedName>
+    <definedName name="solver_rhs9" localSheetId="7" hidden="1">Лист2!$G$25</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -64,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="168">
   <si>
     <t>M1</t>
   </si>
@@ -247,9 +305,6 @@
   </si>
   <si>
     <t>количество</t>
-  </si>
-  <si>
-    <t>max</t>
   </si>
   <si>
     <t xml:space="preserve"> --&gt;</t>
@@ -351,14 +406,311 @@
     </r>
   </si>
   <si>
-    <t>+</t>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>8*x1+5*x2</t>
+  </si>
+  <si>
+    <t>6*x1 + 3*x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9*x1 + 4*x2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;= </t>
+  </si>
+  <si>
+    <t>Решение</t>
+  </si>
+  <si>
+    <t>Решение с ограничениями</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Answer Report</t>
+  </si>
+  <si>
+    <t>Worksheet: [MOptim_Laba2.xlsx]Лист2</t>
+  </si>
+  <si>
+    <t>Result: Solver found a solution.  All Constraints and optimality conditions are satisfied.</t>
+  </si>
+  <si>
+    <t>Solver Engine</t>
+  </si>
+  <si>
+    <t>Engine: Simplex LP</t>
+  </si>
+  <si>
+    <t>Solver Options</t>
+  </si>
+  <si>
+    <t>Max Time Unlimited,  Iterations Unlimited, Precision 0.000001, Use Automatic Scaling</t>
+  </si>
+  <si>
+    <t>Max Subproblems Unlimited, Max Integer Sols Unlimited, Integer Tolerance 1%, Assume NonNegative</t>
+  </si>
+  <si>
+    <t>Objective Cell (Min)</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Original Value</t>
+  </si>
+  <si>
+    <t>Final Value</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Cell Value</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>$F$26</t>
+  </si>
+  <si>
+    <t>$B$21</t>
+  </si>
+  <si>
+    <t>Contin</t>
+  </si>
+  <si>
+    <t>$C$21</t>
+  </si>
+  <si>
+    <t>$D$21</t>
+  </si>
+  <si>
+    <t>$E$21</t>
+  </si>
+  <si>
+    <t>$B$22</t>
+  </si>
+  <si>
+    <t>$C$22</t>
+  </si>
+  <si>
+    <t>$D$22</t>
+  </si>
+  <si>
+    <t>$E$22</t>
+  </si>
+  <si>
+    <t>$B$23</t>
+  </si>
+  <si>
+    <t>$C$23</t>
+  </si>
+  <si>
+    <t>$D$23</t>
+  </si>
+  <si>
+    <t>$E$23</t>
+  </si>
+  <si>
+    <t>$B$24</t>
+  </si>
+  <si>
+    <t>$C$24</t>
+  </si>
+  <si>
+    <t>$D$24</t>
+  </si>
+  <si>
+    <t>$E$24</t>
+  </si>
+  <si>
+    <t>$B$25</t>
+  </si>
+  <si>
+    <t>$C$25</t>
+  </si>
+  <si>
+    <t>$D$25</t>
+  </si>
+  <si>
+    <t>$E$25</t>
+  </si>
+  <si>
+    <t>$B$26</t>
+  </si>
+  <si>
+    <t>$C$26</t>
+  </si>
+  <si>
+    <t>$D$26</t>
+  </si>
+  <si>
+    <t>$E$26</t>
+  </si>
+  <si>
+    <t>$F$21</t>
+  </si>
+  <si>
+    <t>$F$22</t>
+  </si>
+  <si>
+    <t>$F$23</t>
+  </si>
+  <si>
+    <t>$F$24</t>
+  </si>
+  <si>
+    <t>$F$25</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Allowable</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>R.H. Side</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Limits Report</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Report Created: 9/28/2017 12:40:32 PM</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.125 Seconds.</t>
+  </si>
+  <si>
+    <t>Iterations: 15 Subproblems: 0</t>
+  </si>
+  <si>
+    <t>$B$26=$B$27</t>
+  </si>
+  <si>
+    <t>Binding</t>
+  </si>
+  <si>
+    <t>$C$26=$C$27</t>
+  </si>
+  <si>
+    <t>$D$26=$D$27</t>
+  </si>
+  <si>
+    <t>$E$26=$E$27</t>
+  </si>
+  <si>
+    <t>$F$21=$G$21</t>
+  </si>
+  <si>
+    <t>$F$22=$G$22</t>
+  </si>
+  <si>
+    <t>$F$23=$G$23</t>
+  </si>
+  <si>
+    <t>$F$24=$G$24</t>
+  </si>
+  <si>
+    <t>$F$25=$G$25</t>
+  </si>
+  <si>
+    <t>Report Created: 9/28/2017 12:40:33 PM</t>
+  </si>
+  <si>
+    <t>Report Created: 9/28/2017 12:40:34 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +760,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -423,7 +791,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -755,11 +1123,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -793,6 +1174,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -802,86 +1249,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -897,9 +1349,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -937,7 +1389,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1009,7 +1461,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1776,120 +2228,163 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="49" customWidth="1"/>
+    <col min="2" max="3" width="3.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="49" customWidth="1"/>
+    <col min="5" max="5" width="4" style="49" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="49" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="49"/>
+    <col min="10" max="10" width="10.42578125" style="49" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="D2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="49">
+        <v>0</v>
+      </c>
+      <c r="H2" s="49">
+        <v>0</v>
+      </c>
+      <c r="J2" s="49">
+        <f>B5*G2+C5*H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="19">
         <v>6</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="19">
         <v>3</v>
       </c>
       <c r="D3" s="12">
-        <f t="shared" ref="D3:D7" si="0">SUMPRODUCT(B$7:C$7,B3:C3)</f>
+        <f t="shared" ref="D3:D5" si="0">SUMPRODUCT(B$7:C$7,B3:C3)</f>
         <v>30</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="19">
         <v>9</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="19">
         <v>4</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="13">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="G4" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="49">
+        <f>D3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="20">
         <v>8</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="20">
         <v>5</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>62</v>
+      <c r="E5" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="49">
+        <f>D4</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="12">
@@ -1899,11 +2394,11 @@
         <v>10</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="15">
@@ -1916,10 +2411,10 @@
         <f>SUMPRODUCT(B$7:C$7,B8:C8)</f>
         <v>50</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="17"/>
+      <c r="E8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1932,192 +2427,2689 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>50</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>50</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>50</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>50</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>100</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>50</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" s="71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="6">
+        <v>50</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="6">
+        <v>100</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="6">
+        <v>100</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="6">
+        <v>100</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="6">
+        <v>50</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="6">
+        <v>100</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="6">
+        <v>50</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="6">
+        <v>100</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="5">
+        <v>50</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>6</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>7</v>
+      </c>
+      <c r="F21" s="4">
+        <v>7</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H21" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
+        <v>100</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4</v>
+      </c>
+      <c r="F24" s="4">
+        <v>9</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H25" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>50</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4">
+        <v>50</v>
+      </c>
+      <c r="E33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>50</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4">
+        <v>100</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>100</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4">
+        <v>100</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4">
+        <v>100</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4">
+        <v>100</v>
+      </c>
+      <c r="E36" s="4">
+        <v>4</v>
+      </c>
+      <c r="F36" s="4">
+        <v>100</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4">
+        <v>50</v>
+      </c>
+      <c r="E37" s="4">
+        <v>3</v>
+      </c>
+      <c r="F37" s="4">
+        <v>50</v>
+      </c>
+      <c r="G37" s="4">
+        <v>50</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4">
+        <v>100</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="F38" s="4">
+        <v>100</v>
+      </c>
+      <c r="G38" s="4">
+        <v>50</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4">
+        <v>50</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>50</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4">
+        <v>100</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>100</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2">
+        <v>50</v>
+      </c>
+      <c r="E41" s="2">
+        <v>-4</v>
+      </c>
+      <c r="F41" s="2">
+        <v>50</v>
+      </c>
+      <c r="G41" s="2">
+        <v>50</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="72"/>
+      <c r="C6" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="72"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="72"/>
+      <c r="C11" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="72"/>
+      <c r="F11" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="J11" s="72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6">
+        <v>50</v>
+      </c>
+      <c r="F13" s="6">
+        <v>50</v>
+      </c>
+      <c r="G13" s="6">
+        <v>900</v>
+      </c>
+      <c r="I13" s="6">
+        <v>50</v>
+      </c>
+      <c r="J13" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>900</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>900</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>900</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>900</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>900</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="6">
+        <v>50</v>
+      </c>
+      <c r="F19" s="6">
+        <v>50</v>
+      </c>
+      <c r="G19" s="6">
+        <v>900</v>
+      </c>
+      <c r="I19" s="6">
+        <v>50</v>
+      </c>
+      <c r="J19" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6">
+        <v>50</v>
+      </c>
+      <c r="F20" s="6">
+        <v>50</v>
+      </c>
+      <c r="G20" s="6">
+        <v>900</v>
+      </c>
+      <c r="I20" s="6">
+        <v>50</v>
+      </c>
+      <c r="J20" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>900</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>900</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6">
+        <v>50</v>
+      </c>
+      <c r="F23" s="6">
+        <v>50</v>
+      </c>
+      <c r="G23" s="6">
+        <v>900</v>
+      </c>
+      <c r="I23" s="6">
+        <v>50</v>
+      </c>
+      <c r="J23" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>900</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>900</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6">
+        <v>100</v>
+      </c>
+      <c r="F26" s="6">
+        <v>100</v>
+      </c>
+      <c r="G26" s="6">
+        <v>900</v>
+      </c>
+      <c r="I26" s="6">
+        <v>100</v>
+      </c>
+      <c r="J26" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>900</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>900</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>900</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>900</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>900</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="5">
+        <v>50</v>
+      </c>
+      <c r="F32" s="5">
+        <v>50</v>
+      </c>
+      <c r="G32" s="5">
+        <v>900</v>
+      </c>
+      <c r="I32" s="5">
+        <v>50</v>
+      </c>
+      <c r="J32" s="5">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="29">
+        <v>50</v>
+      </c>
+      <c r="C1" s="27">
+        <v>100</v>
+      </c>
+      <c r="D1" s="27">
+        <v>100</v>
+      </c>
+      <c r="E1" s="33">
+        <v>100</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="M1" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="R1" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="29">
+        <v>50</v>
+      </c>
+      <c r="T1" s="27">
+        <v>50</v>
+      </c>
+      <c r="U1" s="27">
+        <v>100</v>
+      </c>
+      <c r="V1" s="33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>50</v>
+      </c>
+      <c r="B2" s="30">
+        <v>2</v>
+      </c>
+      <c r="C2" s="28">
+        <v>4</v>
+      </c>
+      <c r="D2" s="28">
+        <v>5</v>
+      </c>
+      <c r="E2" s="32">
+        <v>8</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="63">
+        <f>B3</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="64">
+        <f>C3</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="64">
+        <f>D3</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="65">
+        <f>E3</f>
+        <v>50</v>
+      </c>
+      <c r="M2" s="63">
+        <f>S3</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="64">
+        <f t="shared" ref="N2:P2" si="0">T3</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2" s="47">
+        <v>50</v>
+      </c>
+      <c r="S2" s="30">
+        <v>2</v>
+      </c>
+      <c r="T2" s="28">
+        <v>4</v>
+      </c>
+      <c r="U2" s="28">
+        <v>5</v>
+      </c>
+      <c r="V2" s="32">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="1">SUM(B3:E3)</f>
+        <v>50</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="9">
+        <f>B5</f>
+        <v>50</v>
+      </c>
+      <c r="I3" s="10">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <f>D5</f>
+        <v>50</v>
+      </c>
+      <c r="K3" s="11">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <f>S5</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:P3" si="2">T5</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="48"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="36"/>
+      <c r="W3">
+        <f t="shared" ref="W3:W7" si="3">SUM(S3:V3)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="37">
-        <v>50</v>
-      </c>
-      <c r="C1" s="35">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="48">
         <v>100</v>
       </c>
-      <c r="D1" s="35">
+      <c r="B4" s="24">
+        <v>5</v>
+      </c>
+      <c r="C4" s="25">
+        <v>3</v>
+      </c>
+      <c r="D4" s="25">
+        <v>4</v>
+      </c>
+      <c r="E4" s="26">
+        <v>6</v>
+      </c>
+      <c r="H4" s="9">
+        <f>B7</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <f>C7</f>
+        <v>50</v>
+      </c>
+      <c r="J4" s="10">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <f>E7</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <f>S7</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" ref="N4:P4" si="4">T7</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="48">
         <v>100</v>
       </c>
-      <c r="E1" s="41">
+      <c r="S4" s="24">
+        <v>5</v>
+      </c>
+      <c r="T4" s="25">
+        <v>3</v>
+      </c>
+      <c r="U4" s="25">
+        <v>4</v>
+      </c>
+      <c r="V4" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="34">
+        <v>50</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35">
+        <v>50</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
-        <v>50</v>
-      </c>
-      <c r="B2" s="38">
+      <c r="H5" s="9">
+        <f>B9</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <f>C9</f>
+        <v>50</v>
+      </c>
+      <c r="J5" s="10">
+        <f>D9</f>
+        <v>50</v>
+      </c>
+      <c r="K5" s="11">
+        <f>E9</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <f>S9</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" ref="N5:P5" si="5">T9</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="48"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="36"/>
+      <c r="W5">
+        <f t="shared" ref="W5:W9" si="6">SUM(S5:V5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="48">
+        <v>50</v>
+      </c>
+      <c r="B6" s="24">
+        <v>3</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="C2" s="36">
+      <c r="E6" s="26">
         <v>4</v>
       </c>
-      <c r="D2" s="36">
-        <v>5</v>
-      </c>
-      <c r="E2" s="40">
-        <v>8</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F2:F8" si="0">SUM(B3:E3)</f>
-        <v>50</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="H6" s="14">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <f>C11</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <f>E11</f>
+        <v>50</v>
+      </c>
+      <c r="M6" s="14">
+        <f>S11</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f t="shared" ref="N6:P6" si="7">T11</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="48">
+        <v>50</v>
+      </c>
+      <c r="S6" s="24">
+        <v>3</v>
+      </c>
+      <c r="T6" s="25">
+        <v>1</v>
+      </c>
+      <c r="U6" s="25">
+        <v>2</v>
+      </c>
+      <c r="V6" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35">
+        <v>50</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="R7" s="48"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="36"/>
+      <c r="W7">
+        <f t="shared" ref="W7:W11" si="8">SUM(S7:V7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
         <v>100</v>
       </c>
-      <c r="B4" s="32">
-        <v>5</v>
-      </c>
-      <c r="C4" s="33">
-        <v>3</v>
-      </c>
-      <c r="D4" s="33">
-        <v>4</v>
-      </c>
-      <c r="E4" s="34">
+      <c r="B8" s="24">
+        <v>7</v>
+      </c>
+      <c r="C8" s="25">
+        <v>2</v>
+      </c>
+      <c r="D8" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45">
-        <v>50</v>
-      </c>
-      <c r="E5" s="46">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>50</v>
-      </c>
-      <c r="B6" s="32">
-        <v>3</v>
-      </c>
-      <c r="C6" s="33">
-        <v>1</v>
-      </c>
-      <c r="D6" s="33">
+      <c r="E8" s="26">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <f>E2*E3+B4*B5+D4*D5+C6*C7+C8*C9+D8*D9+E10*E11</f>
+        <v>1300</v>
+      </c>
+      <c r="R8" s="48">
+        <v>50</v>
+      </c>
+      <c r="S8" s="24">
+        <v>7</v>
+      </c>
+      <c r="T8" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45">
-        <v>50</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>100</v>
-      </c>
-      <c r="B8" s="32">
-        <v>7</v>
-      </c>
-      <c r="C8" s="33">
-        <v>2</v>
-      </c>
-      <c r="D8" s="33">
+      <c r="U8" s="25">
         <v>6</v>
       </c>
-      <c r="E8" s="34">
+      <c r="V8" s="26">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48">
-        <v>50</v>
-      </c>
-      <c r="D9" s="48">
-        <v>50</v>
-      </c>
-      <c r="E9" s="49"/>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35">
+        <v>50</v>
+      </c>
+      <c r="D9" s="35">
+        <v>50</v>
+      </c>
+      <c r="E9" s="36"/>
       <c r="F9">
         <f>SUM(B9:E9)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>SUM(B3,B5,B7,B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:D10" si="1">SUM(C3,C5,C7,C9)</f>
+      <c r="R9" s="48"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="36"/>
+      <c r="W9">
+        <f>SUM(S9:V9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="60">
+        <v>50</v>
+      </c>
+      <c r="B10" s="56">
+        <v>0</v>
+      </c>
+      <c r="C10" s="57">
+        <v>0</v>
+      </c>
+      <c r="D10" s="57">
+        <v>0</v>
+      </c>
+      <c r="E10" s="58">
+        <v>0</v>
+      </c>
+      <c r="R10" s="60">
+        <v>50</v>
+      </c>
+      <c r="S10" s="56">
+        <v>0</v>
+      </c>
+      <c r="T10" s="57">
+        <v>0</v>
+      </c>
+      <c r="U10" s="57">
+        <v>0</v>
+      </c>
+      <c r="V10" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="61"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <f>SUM(B11:E11)</f>
+        <v>50</v>
+      </c>
+      <c r="R11" s="61"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="39"/>
+      <c r="W11">
+        <f>SUM(S11:V11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>SUM(B3,B5,B7,B9,B11)</f>
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:E12" si="9">SUM(C3,C5,C7,C9,C11)</f>
         <v>100</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
+      <c r="D12">
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="E10">
-        <f>SUM(E3,E5,E7,E9)</f>
+      <c r="E12">
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
+      <c r="S12">
+        <f>SUM(S3,S5,S7,S9,S11)</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ref="T12" si="10">SUM(T3,T5,T7,T9,T11)</f>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ref="U12" si="11">SUM(U3,U5,U7,U9,U11)</f>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ref="V12" si="12">SUM(V3,V5,V7,V9,V11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="27">
+        <v>2</v>
+      </c>
+      <c r="D14" s="27">
+        <v>3</v>
+      </c>
+      <c r="E14" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="30">
+        <v>2</v>
+      </c>
+      <c r="C15" s="28">
+        <v>4</v>
+      </c>
+      <c r="D15" s="28">
+        <v>5</v>
+      </c>
+      <c r="E15" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="24">
+        <v>5</v>
+      </c>
+      <c r="C16" s="25">
+        <v>3</v>
+      </c>
+      <c r="D16" s="25">
+        <v>4</v>
+      </c>
+      <c r="E16" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="24">
+        <v>3</v>
+      </c>
+      <c r="C17" s="25">
+        <v>1</v>
+      </c>
+      <c r="D17" s="25">
+        <v>2</v>
+      </c>
+      <c r="E17" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="24">
+        <v>7</v>
+      </c>
+      <c r="C18" s="25">
+        <v>2</v>
+      </c>
+      <c r="D18" s="25">
+        <v>6</v>
+      </c>
+      <c r="E18" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="67">
+        <v>0</v>
+      </c>
+      <c r="C19" s="68">
+        <v>0</v>
+      </c>
+      <c r="D19" s="68">
+        <v>0</v>
+      </c>
+      <c r="E19" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="63">
+        <v>50</v>
+      </c>
+      <c r="C21" s="64">
+        <v>0</v>
+      </c>
+      <c r="D21" s="64">
+        <v>0</v>
+      </c>
+      <c r="E21" s="65">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>SUM(B21:E21)</f>
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>50</v>
+      </c>
+      <c r="E22" s="11">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F25" si="13">SUM(B22:E22)</f>
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="9">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
+        <v>50</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="9">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10">
+        <v>100</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="14">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>SUM(B21:B25)</f>
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:E26" si="14">SUM(C21:C25)</f>
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <f>SUMPRODUCT(B21:E25,B15:E19)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="R6:R7"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F11" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/MOptim/MOptim_Laba2.xlsx
+++ b/MOptim/MOptim_Laba2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="0" windowWidth="20490" windowHeight="8205" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="2370" yWindow="0" windowWidth="20490" windowHeight="8205" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет о результатах 1" sheetId="2" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="168">
   <si>
     <t>M1</t>
   </si>
@@ -418,9 +418,6 @@
     <t>6*x1 + 3*x2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">9*x1 + 4*x2 </t>
   </si>
   <si>
@@ -704,6 +701,9 @@
   </si>
   <si>
     <t>Report Created: 9/28/2017 12:40:34 PM</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -1240,30 +1240,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1296,15 +1272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1330,6 +1297,39 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1614,7 +1614,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2230,39 +2232,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="49" customWidth="1"/>
-    <col min="2" max="3" width="3.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="49" customWidth="1"/>
-    <col min="5" max="5" width="4" style="49" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="49" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="49"/>
-    <col min="10" max="10" width="10.42578125" style="49" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="49"/>
+    <col min="1" max="1" width="20.7109375" style="41" customWidth="1"/>
+    <col min="2" max="3" width="3.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="41" customWidth="1"/>
+    <col min="5" max="5" width="4" style="41" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="41" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="41" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="41"/>
+    <col min="10" max="10" width="10.42578125" style="41" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="49" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="41" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2279,19 +2281,19 @@
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="49">
-        <v>0</v>
-      </c>
-      <c r="H2" s="49">
-        <v>0</v>
-      </c>
-      <c r="J2" s="49">
+      <c r="G2" s="41">
+        <v>0</v>
+      </c>
+      <c r="H2" s="41">
+        <v>0</v>
+      </c>
+      <c r="J2" s="41">
         <f>B5*G2+C5*H2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="19">
@@ -2312,7 +2314,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="43" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="19">
@@ -2331,19 +2333,19 @@
       <c r="F4" s="13">
         <v>45</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="49">
+      <c r="H4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="41">
         <f>D3</f>
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="20">
@@ -2360,31 +2362,30 @@
         <v>61</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="H5" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="49">
-        <f>D4</f>
-        <v>40</v>
+      <c r="I5" s="41">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="45" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="12">
@@ -2398,7 +2399,7 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="15">
@@ -2414,7 +2415,9 @@
       <c r="E8" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="47" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2442,85 +2445,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="60" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="71" t="s">
+      <c r="C15" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="D15" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="E15" s="60" t="s">
         <v>93</v>
-      </c>
-      <c r="E15" s="71" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="5">
@@ -2532,29 +2535,29 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="60" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="71" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="6">
@@ -2564,12 +2567,12 @@
         <v>50</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6">
@@ -2579,12 +2582,12 @@
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="6">
@@ -2594,12 +2597,12 @@
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="6">
@@ -2609,12 +2612,12 @@
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="6">
@@ -2624,12 +2627,12 @@
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6">
@@ -2639,12 +2642,12 @@
         <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="6">
@@ -2654,12 +2657,12 @@
         <v>50</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="6">
@@ -2669,12 +2672,12 @@
         <v>50</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="6">
@@ -2684,12 +2687,12 @@
         <v>0</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6">
@@ -2699,12 +2702,12 @@
         <v>0</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="6">
@@ -2714,12 +2717,12 @@
         <v>50</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="6">
@@ -2729,12 +2732,12 @@
         <v>0</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="6">
@@ -2744,12 +2747,12 @@
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="6">
@@ -2759,12 +2762,12 @@
         <v>100</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="6">
@@ -2774,12 +2777,12 @@
         <v>0</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="6">
@@ -2789,12 +2792,12 @@
         <v>0</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="6">
@@ -2804,12 +2807,12 @@
         <v>0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="6">
@@ -2819,12 +2822,12 @@
         <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="6">
@@ -2834,12 +2837,12 @@
         <v>0</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="5">
@@ -2849,47 +2852,47 @@
         <v>50</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="60" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="71" t="s">
+      <c r="E44" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="71" t="s">
+      <c r="F44" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="71" t="s">
+      <c r="G44" s="60" t="s">
         <v>100</v>
-      </c>
-      <c r="G44" s="71" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="6">
         <v>50</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="G45" s="4">
         <v>0</v>
@@ -2897,17 +2900,17 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="6">
         <v>100</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
@@ -2915,17 +2918,17 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="6">
         <v>100</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G47" s="4">
         <v>0</v>
@@ -2933,17 +2936,17 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="6">
         <v>100</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
@@ -2951,17 +2954,17 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="6">
         <v>50</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
@@ -2969,17 +2972,17 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="6">
         <v>100</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G50" s="4">
         <v>0</v>
@@ -2987,17 +2990,17 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="6">
         <v>50</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
@@ -3005,17 +3008,17 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="6">
         <v>100</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G52" s="4">
         <v>0</v>
@@ -3023,17 +3026,17 @@
     </row>
     <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="5">
         <v>50</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
@@ -3062,70 +3065,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>133</v>
+      <c r="A1" s="59" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>83</v>
+      <c r="A2" s="59" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
-        <v>166</v>
+      <c r="A3" s="59" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E8" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F8" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G8" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="H7" s="72" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="73" t="s">
+      <c r="H8" s="62" t="s">
         <v>141</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
@@ -3146,7 +3149,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
@@ -3167,7 +3170,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
@@ -3188,7 +3191,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
@@ -3209,7 +3212,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
@@ -3230,7 +3233,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
@@ -3251,7 +3254,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
@@ -3272,7 +3275,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
@@ -3293,7 +3296,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4">
@@ -3314,7 +3317,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4">
@@ -3335,7 +3338,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4">
@@ -3356,7 +3359,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4">
@@ -3377,7 +3380,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4">
@@ -3398,7 +3401,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4">
@@ -3419,7 +3422,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4">
@@ -3440,7 +3443,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4">
@@ -3461,7 +3464,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4">
@@ -3482,7 +3485,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4">
@@ -3503,7 +3506,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4">
@@ -3524,7 +3527,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
@@ -3545,54 +3548,54 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72" t="s">
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="72" t="s">
+      <c r="E32" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="F31" s="72" t="s">
+      <c r="F32" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="G31" s="72" t="s">
+      <c r="G32" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="H31" s="72" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" s="73" t="s">
+      <c r="H32" s="62" t="s">
         <v>141</v>
-      </c>
-      <c r="H32" s="73" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4">
@@ -3613,7 +3616,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4">
@@ -3634,7 +3637,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4">
@@ -3655,7 +3658,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4">
@@ -3676,7 +3679,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4">
@@ -3697,7 +3700,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4">
@@ -3718,7 +3721,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4">
@@ -3739,7 +3742,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4">
@@ -3760,7 +3763,7 @@
     </row>
     <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2">
@@ -3805,42 +3808,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>147</v>
+      <c r="A1" s="59" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>83</v>
+      <c r="A2" s="59" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
-        <v>167</v>
+      <c r="A3" s="59" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="72"/>
-      <c r="C6" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="72"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>135</v>
+      <c r="D7" s="62" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="5">
@@ -3849,50 +3852,50 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="72"/>
-      <c r="C11" s="72" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="F11" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="F11" s="72" t="s">
+      <c r="G11" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="J11" s="72" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="73" t="s">
+      <c r="G12" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="G12" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="62" t="s">
         <v>150</v>
-      </c>
-      <c r="J12" s="73" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="6">
@@ -3913,7 +3916,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6">
@@ -3934,7 +3937,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="6">
@@ -3955,7 +3958,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="6">
@@ -3976,7 +3979,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="6">
@@ -3997,7 +4000,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="6">
@@ -4018,7 +4021,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="6">
@@ -4039,7 +4042,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6">
@@ -4060,7 +4063,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="6">
@@ -4081,7 +4084,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6">
@@ -4102,7 +4105,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="6">
@@ -4123,7 +4126,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="6">
@@ -4144,7 +4147,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="6">
@@ -4165,7 +4168,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6">
@@ -4186,7 +4189,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="6">
@@ -4207,7 +4210,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="6">
@@ -4228,7 +4231,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="6">
@@ -4249,7 +4252,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="6">
@@ -4270,7 +4273,7 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="6">
@@ -4291,7 +4294,7 @@
     </row>
     <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="5">
@@ -4319,14 +4322,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="29">
@@ -4341,19 +4344,19 @@
       <c r="E1" s="33">
         <v>100</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="M1" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="M1" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="R1" s="59" t="s">
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="R1" s="51" t="s">
         <v>65</v>
       </c>
       <c r="S1" s="29">
@@ -4370,7 +4373,7 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
+      <c r="A2" s="73">
         <v>50</v>
       </c>
       <c r="B2" s="30">
@@ -4386,39 +4389,39 @@
         <v>8</v>
       </c>
       <c r="G2" s="40"/>
-      <c r="H2" s="63">
+      <c r="H2" s="52">
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="53">
         <f>C3</f>
         <v>0</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="53">
         <f>D3</f>
         <v>0</v>
       </c>
-      <c r="K2" s="65">
+      <c r="K2" s="54">
         <f>E3</f>
         <v>50</v>
       </c>
-      <c r="M2" s="63">
+      <c r="M2" s="52">
         <f>S3</f>
         <v>0</v>
       </c>
-      <c r="N2" s="64">
+      <c r="N2" s="53">
         <f t="shared" ref="N2:P2" si="0">T3</f>
         <v>0</v>
       </c>
-      <c r="O2" s="64">
+      <c r="O2" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P2" s="65">
+      <c r="P2" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R2" s="47">
+      <c r="R2" s="73">
         <v>50</v>
       </c>
       <c r="S2" s="30">
@@ -4438,7 +4441,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="34"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -4482,13 +4485,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R3" s="48"/>
+      <c r="R3" s="69"/>
       <c r="S3" s="34"/>
       <c r="T3" s="35"/>
       <c r="U3" s="35"/>
       <c r="V3" s="36"/>
       <c r="W3">
-        <f t="shared" ref="W3:W7" si="3">SUM(S3:V3)</f>
+        <f t="shared" ref="W3" si="3">SUM(S3:V3)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="40" t="s">
@@ -4496,7 +4499,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="48">
+      <c r="A4" s="69">
         <v>100</v>
       </c>
       <c r="B4" s="24">
@@ -4543,7 +4546,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R4" s="48">
+      <c r="R4" s="69">
         <v>100</v>
       </c>
       <c r="S4" s="24">
@@ -4560,7 +4563,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="34">
         <v>50</v>
       </c>
@@ -4605,18 +4608,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R5" s="48"/>
+      <c r="R5" s="69"/>
       <c r="S5" s="34"/>
       <c r="T5" s="35"/>
       <c r="U5" s="35"/>
       <c r="V5" s="36"/>
       <c r="W5">
-        <f t="shared" ref="W5:W9" si="6">SUM(S5:V5)</f>
+        <f t="shared" ref="W5" si="6">SUM(S5:V5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48">
+      <c r="A6" s="69">
         <v>50</v>
       </c>
       <c r="B6" s="24">
@@ -4663,7 +4666,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="69">
         <v>50</v>
       </c>
       <c r="S6" s="24">
@@ -4680,7 +4683,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="34"/>
       <c r="C7" s="35">
         <v>50</v>
@@ -4691,18 +4694,18 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="R7" s="48"/>
+      <c r="R7" s="69"/>
       <c r="S7" s="34"/>
       <c r="T7" s="35"/>
       <c r="U7" s="35"/>
       <c r="V7" s="36"/>
       <c r="W7">
-        <f t="shared" ref="W7:W11" si="8">SUM(S7:V7)</f>
+        <f t="shared" ref="W7" si="8">SUM(S7:V7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+      <c r="A8" s="69">
         <v>100</v>
       </c>
       <c r="B8" s="24">
@@ -4721,7 +4724,7 @@
         <f>E2*E3+B4*B5+D4*D5+C6*C7+C8*C9+D8*D9+E10*E11</f>
         <v>1300</v>
       </c>
-      <c r="R8" s="48">
+      <c r="R8" s="69">
         <v>50</v>
       </c>
       <c r="S8" s="24">
@@ -4738,7 +4741,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="34"/>
       <c r="C9" s="35">
         <v>50</v>
@@ -4751,7 +4754,7 @@
         <f>SUM(B9:E9)</f>
         <v>100</v>
       </c>
-      <c r="R9" s="48"/>
+      <c r="R9" s="69"/>
       <c r="S9" s="34"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
@@ -4762,39 +4765,39 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="60">
-        <v>50</v>
-      </c>
-      <c r="B10" s="56">
-        <v>0</v>
-      </c>
-      <c r="C10" s="57">
-        <v>0</v>
-      </c>
-      <c r="D10" s="57">
-        <v>0</v>
-      </c>
-      <c r="E10" s="58">
-        <v>0</v>
-      </c>
-      <c r="R10" s="60">
-        <v>50</v>
-      </c>
-      <c r="S10" s="56">
-        <v>0</v>
-      </c>
-      <c r="T10" s="57">
-        <v>0</v>
-      </c>
-      <c r="U10" s="57">
-        <v>0</v>
-      </c>
-      <c r="V10" s="58">
+      <c r="A10" s="70">
+        <v>50</v>
+      </c>
+      <c r="B10" s="48">
+        <v>0</v>
+      </c>
+      <c r="C10" s="49">
+        <v>0</v>
+      </c>
+      <c r="D10" s="49">
+        <v>0</v>
+      </c>
+      <c r="E10" s="50">
+        <v>0</v>
+      </c>
+      <c r="R10" s="70">
+        <v>50</v>
+      </c>
+      <c r="S10" s="48">
+        <v>0</v>
+      </c>
+      <c r="T10" s="49">
+        <v>0</v>
+      </c>
+      <c r="U10" s="49">
+        <v>0</v>
+      </c>
+      <c r="V10" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="37"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -4805,7 +4808,7 @@
         <f>SUM(B11:E11)</f>
         <v>50</v>
       </c>
-      <c r="R11" s="61"/>
+      <c r="R11" s="71"/>
       <c r="S11" s="37"/>
       <c r="T11" s="38"/>
       <c r="U11" s="38"/>
@@ -4851,7 +4854,7 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="29">
         <v>1</v>
       </c>
@@ -4867,7 +4870,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="30">
         <v>2</v>
@@ -4884,7 +4887,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="24">
         <v>5</v>
@@ -4901,7 +4904,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="24">
         <v>3</v>
@@ -4918,7 +4921,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="24">
         <v>7</v>
@@ -4934,34 +4937,34 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="67">
-        <v>0</v>
-      </c>
-      <c r="C19" s="68">
-        <v>0</v>
-      </c>
-      <c r="D19" s="68">
-        <v>0</v>
-      </c>
-      <c r="E19" s="69">
+      <c r="A19" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="56">
+        <v>0</v>
+      </c>
+      <c r="C19" s="57">
+        <v>0</v>
+      </c>
+      <c r="D19" s="57">
+        <v>0</v>
+      </c>
+      <c r="E19" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="63">
-        <v>50</v>
-      </c>
-      <c r="C21" s="64">
-        <v>0</v>
-      </c>
-      <c r="D21" s="64">
-        <v>0</v>
-      </c>
-      <c r="E21" s="65">
+      <c r="B21" s="52">
+        <v>50</v>
+      </c>
+      <c r="C21" s="53">
+        <v>0</v>
+      </c>
+      <c r="D21" s="53">
+        <v>0</v>
+      </c>
+      <c r="E21" s="54">
         <v>0</v>
       </c>
       <c r="F21">
@@ -5094,6 +5097,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="H1:K1"/>
@@ -5101,11 +5109,6 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/MOptim/MOptim_Laba2.xlsx
+++ b/MOptim/MOptim_Laba2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="0" windowWidth="20490" windowHeight="8205" activeTab="3"/>
+    <workbookView xWindow="3555" yWindow="0" windowWidth="20490" windowHeight="8205" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет о результатах 1" sheetId="2" r:id="rId1"/>
@@ -19,98 +19,105 @@
     <sheet name="Answer Report 1" sheetId="9" r:id="rId5"/>
     <sheet name="Sensitivity Report 1" sheetId="10" r:id="rId6"/>
     <sheet name="Limits Report 1" sheetId="11" r:id="rId7"/>
-    <sheet name="Лист2" sheetId="5" r:id="rId8"/>
+    <sheet name="Answer Report 2" sheetId="12" r:id="rId8"/>
+    <sheet name="Sensitivity Report 2" sheetId="13" r:id="rId9"/>
+    <sheet name="Limits Report 2" sheetId="14" r:id="rId10"/>
+    <sheet name="Лист2" sheetId="5" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">Лист1!$B$7:$C$7</definedName>
-    <definedName name="solver_adj" localSheetId="7" hidden="1">Лист2!$B$21:$E$25</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Лист1!$B$8:$C$8</definedName>
+    <definedName name="solver_adj" localSheetId="10" hidden="1">Лист2!$E$53:$I$57</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="10" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">Лист1!$D$3</definedName>
-    <definedName name="solver_lhs1" localSheetId="7" hidden="1">Лист2!$B$26</definedName>
+    <definedName name="solver_lhs1" localSheetId="10" hidden="1">Лист2!$E$58</definedName>
+    <definedName name="solver_lhs10" localSheetId="10" hidden="1">Лист2!$J$57</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">Лист1!$D$4</definedName>
-    <definedName name="solver_lhs2" localSheetId="7" hidden="1">Лист2!$C$26</definedName>
-    <definedName name="solver_lhs3" localSheetId="7" hidden="1">Лист2!$D$26</definedName>
-    <definedName name="solver_lhs4" localSheetId="7" hidden="1">Лист2!$E$26</definedName>
-    <definedName name="solver_lhs5" localSheetId="7" hidden="1">Лист2!$F$21</definedName>
-    <definedName name="solver_lhs6" localSheetId="7" hidden="1">Лист2!$F$22</definedName>
-    <definedName name="solver_lhs7" localSheetId="7" hidden="1">Лист2!$F$23</definedName>
-    <definedName name="solver_lhs8" localSheetId="7" hidden="1">Лист2!$F$24</definedName>
-    <definedName name="solver_lhs9" localSheetId="7" hidden="1">Лист2!$F$25</definedName>
+    <definedName name="solver_lhs2" localSheetId="10" hidden="1">Лист2!$F$58</definedName>
+    <definedName name="solver_lhs3" localSheetId="10" hidden="1">Лист2!$G$58</definedName>
+    <definedName name="solver_lhs4" localSheetId="10" hidden="1">Лист2!$H$58</definedName>
+    <definedName name="solver_lhs5" localSheetId="10" hidden="1">Лист2!$I$58</definedName>
+    <definedName name="solver_lhs6" localSheetId="10" hidden="1">Лист2!$J$53</definedName>
+    <definedName name="solver_lhs7" localSheetId="10" hidden="1">Лист2!$J$54</definedName>
+    <definedName name="solver_lhs8" localSheetId="10" hidden="1">Лист2!$J$55</definedName>
+    <definedName name="solver_lhs9" localSheetId="10" hidden="1">Лист2!$J$56</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="10" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="10" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="7" hidden="1">9</definedName>
+    <definedName name="solver_num" localSheetId="10" hidden="1">10</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">Лист1!$D$8</definedName>
-    <definedName name="solver_opt" localSheetId="7" hidden="1">Лист2!$F$26</definedName>
+    <definedName name="solver_nwt" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Лист1!$D$9</definedName>
+    <definedName name="solver_opt" localSheetId="10" hidden="1">Лист2!$K$59</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="10" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_rel10" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="7" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="7" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="7" hidden="1">2</definedName>
-    <definedName name="solver_rel5" localSheetId="7" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="7" hidden="1">2</definedName>
-    <definedName name="solver_rel7" localSheetId="7" hidden="1">2</definedName>
-    <definedName name="solver_rel8" localSheetId="7" hidden="1">2</definedName>
-    <definedName name="solver_rel9" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_rel9" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">Лист1!$F$3</definedName>
-    <definedName name="solver_rhs1" localSheetId="7" hidden="1">Лист2!$B$27</definedName>
+    <definedName name="solver_rhs1" localSheetId="10" hidden="1">Лист2!$E$59</definedName>
+    <definedName name="solver_rhs10" localSheetId="10" hidden="1">Лист2!$K$57</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">Лист1!$F$4</definedName>
-    <definedName name="solver_rhs2" localSheetId="7" hidden="1">Лист2!$C$27</definedName>
-    <definedName name="solver_rhs3" localSheetId="7" hidden="1">Лист2!$D$27</definedName>
-    <definedName name="solver_rhs4" localSheetId="7" hidden="1">Лист2!$E$27</definedName>
-    <definedName name="solver_rhs5" localSheetId="7" hidden="1">Лист2!$G$21</definedName>
-    <definedName name="solver_rhs6" localSheetId="7" hidden="1">Лист2!$G$22</definedName>
-    <definedName name="solver_rhs7" localSheetId="7" hidden="1">Лист2!$G$23</definedName>
-    <definedName name="solver_rhs8" localSheetId="7" hidden="1">Лист2!$G$24</definedName>
-    <definedName name="solver_rhs9" localSheetId="7" hidden="1">Лист2!$G$25</definedName>
+    <definedName name="solver_rhs2" localSheetId="10" hidden="1">Лист2!$F$59</definedName>
+    <definedName name="solver_rhs3" localSheetId="10" hidden="1">Лист2!$G$59</definedName>
+    <definedName name="solver_rhs4" localSheetId="10" hidden="1">Лист2!$H$59</definedName>
+    <definedName name="solver_rhs5" localSheetId="10" hidden="1">Лист2!$I$59</definedName>
+    <definedName name="solver_rhs6" localSheetId="10" hidden="1">Лист2!$K$53</definedName>
+    <definedName name="solver_rhs7" localSheetId="10" hidden="1">Лист2!$K$54</definedName>
+    <definedName name="solver_rhs8" localSheetId="10" hidden="1">Лист2!$K$55</definedName>
+    <definedName name="solver_rhs9" localSheetId="10" hidden="1">Лист2!$K$56</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="10" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="10" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="10" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="10" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="10" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -122,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="225">
   <si>
     <t>M1</t>
   </si>
@@ -705,12 +712,183 @@
   <si>
     <t>max</t>
   </si>
+  <si>
+    <t>имя</t>
+  </si>
+  <si>
+    <t>х1</t>
+  </si>
+  <si>
+    <t>х2</t>
+  </si>
+  <si>
+    <t>знак</t>
+  </si>
+  <si>
+    <t>&lt;-целевая ф-ия</t>
+  </si>
+  <si>
+    <t>Report Created: 10/10/2017 2:12:30 PM</t>
+  </si>
+  <si>
+    <t>Iterations: 17 Subproblems: 0</t>
+  </si>
+  <si>
+    <t>$K$59</t>
+  </si>
+  <si>
+    <t>$E$53</t>
+  </si>
+  <si>
+    <t>$F$53</t>
+  </si>
+  <si>
+    <t>ai\bi</t>
+  </si>
+  <si>
+    <t>$G$53</t>
+  </si>
+  <si>
+    <t>$H$53</t>
+  </si>
+  <si>
+    <t>$I$53</t>
+  </si>
+  <si>
+    <t>$E$54</t>
+  </si>
+  <si>
+    <t>$F$54</t>
+  </si>
+  <si>
+    <t>$G$54</t>
+  </si>
+  <si>
+    <t>$H$54</t>
+  </si>
+  <si>
+    <t>$I$54</t>
+  </si>
+  <si>
+    <t>$E$55</t>
+  </si>
+  <si>
+    <t>$F$55</t>
+  </si>
+  <si>
+    <t>$G$55</t>
+  </si>
+  <si>
+    <t>$H$55</t>
+  </si>
+  <si>
+    <t>$I$55</t>
+  </si>
+  <si>
+    <t>$E$56</t>
+  </si>
+  <si>
+    <t>$F$56</t>
+  </si>
+  <si>
+    <t>$G$56</t>
+  </si>
+  <si>
+    <t>$H$56</t>
+  </si>
+  <si>
+    <t>$I$56</t>
+  </si>
+  <si>
+    <t>$E$57</t>
+  </si>
+  <si>
+    <t>$F$57</t>
+  </si>
+  <si>
+    <t>$G$57</t>
+  </si>
+  <si>
+    <t>$H$57</t>
+  </si>
+  <si>
+    <t>$I$57</t>
+  </si>
+  <si>
+    <t>$E$58</t>
+  </si>
+  <si>
+    <t>$E$58=$E$59</t>
+  </si>
+  <si>
+    <t>$F$58</t>
+  </si>
+  <si>
+    <t>$F$58=$F$59</t>
+  </si>
+  <si>
+    <t>$G$58</t>
+  </si>
+  <si>
+    <t>$G$58=$G$59</t>
+  </si>
+  <si>
+    <t>$H$58</t>
+  </si>
+  <si>
+    <t>$H$58=$H$59</t>
+  </si>
+  <si>
+    <t>$I$58</t>
+  </si>
+  <si>
+    <t>$I$58=$I$59</t>
+  </si>
+  <si>
+    <t>$J$53</t>
+  </si>
+  <si>
+    <t>$J$53=$K$53</t>
+  </si>
+  <si>
+    <t>$J$54</t>
+  </si>
+  <si>
+    <t>$J$54=$K$54</t>
+  </si>
+  <si>
+    <t>$J$55</t>
+  </si>
+  <si>
+    <t>$J$55=$K$55</t>
+  </si>
+  <si>
+    <t>$J$56</t>
+  </si>
+  <si>
+    <t>$J$56=$K$56</t>
+  </si>
+  <si>
+    <t>$J$57</t>
+  </si>
+  <si>
+    <t>$J$57=$K$57</t>
+  </si>
+  <si>
+    <t>Report Created: 10/10/2017 2:12:31 PM</t>
+  </si>
+  <si>
+    <t>Report Created: 10/10/2017 2:12:32 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,8 +954,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -790,8 +982,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1136,11 +1334,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1298,6 +1509,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1316,6 +1530,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1328,8 +1545,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1613,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +2144,1712 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="102"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="102"/>
+      <c r="C11" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="102"/>
+      <c r="F11" s="102" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="102" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="103" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="103" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="103" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="103" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6">
+        <v>50</v>
+      </c>
+      <c r="F13" s="6">
+        <v>50</v>
+      </c>
+      <c r="G13" s="6">
+        <v>750</v>
+      </c>
+      <c r="I13" s="6">
+        <v>50</v>
+      </c>
+      <c r="J13" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>750</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>750</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>750</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>750</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>750</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>750</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>750</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="6">
+        <v>50</v>
+      </c>
+      <c r="F21" s="6">
+        <v>50</v>
+      </c>
+      <c r="G21" s="6">
+        <v>750</v>
+      </c>
+      <c r="I21" s="6">
+        <v>50</v>
+      </c>
+      <c r="J21" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>750</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>750</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>750</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6">
+        <v>50</v>
+      </c>
+      <c r="F25" s="6">
+        <v>50</v>
+      </c>
+      <c r="G25" s="6">
+        <v>750</v>
+      </c>
+      <c r="I25" s="6">
+        <v>50</v>
+      </c>
+      <c r="J25" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>750</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>750</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>750</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="6">
+        <v>50</v>
+      </c>
+      <c r="F29" s="6">
+        <v>50</v>
+      </c>
+      <c r="G29" s="6">
+        <v>750</v>
+      </c>
+      <c r="I29" s="6">
+        <v>50</v>
+      </c>
+      <c r="J29" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>750</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="6">
+        <v>50</v>
+      </c>
+      <c r="F31" s="6">
+        <v>50</v>
+      </c>
+      <c r="G31" s="6">
+        <v>750</v>
+      </c>
+      <c r="I31" s="6">
+        <v>50</v>
+      </c>
+      <c r="J31" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>750</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>750</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>750</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>750</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>750</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="5">
+        <v>50</v>
+      </c>
+      <c r="F37" s="5">
+        <v>50</v>
+      </c>
+      <c r="G37" s="5">
+        <v>750</v>
+      </c>
+      <c r="I37" s="5">
+        <v>50</v>
+      </c>
+      <c r="J37" s="5">
+        <v>750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="29">
+        <v>50</v>
+      </c>
+      <c r="C1" s="27">
+        <v>100</v>
+      </c>
+      <c r="D1" s="27">
+        <v>100</v>
+      </c>
+      <c r="E1" s="79">
+        <v>100</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="M1" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="70">
+        <v>50</v>
+      </c>
+      <c r="B2" s="30">
+        <v>2</v>
+      </c>
+      <c r="C2" s="28">
+        <v>4</v>
+      </c>
+      <c r="D2" s="28">
+        <v>5</v>
+      </c>
+      <c r="E2" s="32">
+        <v>8</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="52">
+        <f>B3</f>
+        <v>50</v>
+      </c>
+      <c r="I2" s="53">
+        <f>C3</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="53">
+        <f>D3</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="54">
+        <f>E3</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="52" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N2" s="53" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O2" s="53" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P2" s="54" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z2" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="71"/>
+      <c r="B3" s="34">
+        <v>50</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="0">SUM(B3:E3)</f>
+        <v>50</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="9">
+        <f>B5</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <f>D5</f>
+        <v>100</v>
+      </c>
+      <c r="K3" s="11">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="9" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N3" s="10" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O3" s="10" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P3" s="11" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z3" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="71">
+        <v>100</v>
+      </c>
+      <c r="B4" s="24">
+        <v>5</v>
+      </c>
+      <c r="C4" s="25">
+        <v>3</v>
+      </c>
+      <c r="D4" s="25">
+        <v>4</v>
+      </c>
+      <c r="E4" s="26">
+        <v>6</v>
+      </c>
+      <c r="H4" s="9">
+        <f>B7</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <f>C7</f>
+        <v>50</v>
+      </c>
+      <c r="J4" s="10">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <f>E7</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N4" s="10" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O4" s="10" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P4" s="11" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35">
+        <v>100</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H5" s="9">
+        <f>B9</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <f>C9</f>
+        <v>50</v>
+      </c>
+      <c r="J5" s="10">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <f>E9</f>
+        <v>50</v>
+      </c>
+      <c r="M5" s="9" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N5" s="10" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O5" s="10" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P5" s="11" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="71">
+        <v>50</v>
+      </c>
+      <c r="B6" s="24">
+        <v>3</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25">
+        <v>2</v>
+      </c>
+      <c r="E6" s="26">
+        <v>4</v>
+      </c>
+      <c r="H6" s="14">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <f>C11</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <f>E11</f>
+        <v>50</v>
+      </c>
+      <c r="M6" s="14" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N6" s="16" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O6" s="16" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P6" s="17" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="71"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35">
+        <v>50</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="71">
+        <v>100</v>
+      </c>
+      <c r="B8" s="24">
+        <v>7</v>
+      </c>
+      <c r="C8" s="25">
+        <v>2</v>
+      </c>
+      <c r="D8" s="25">
+        <v>6</v>
+      </c>
+      <c r="E8" s="26">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <f>B2*B3+C2*C3+D2*D3+E2*E3+B4*B5+C4*C5+D4*D5+E4*E5+B6*B7+C6*C7+D6*D7+E6*E7+B8*B9+C8*C9+D8*D9+E8*E9+B10*B11+C10*C11+D10*D11+E10*E11</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="71"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35">
+        <v>50</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <f>SUM(B9:E9)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="72">
+        <v>50</v>
+      </c>
+      <c r="B10" s="48">
+        <v>0</v>
+      </c>
+      <c r="C10" s="49">
+        <v>0</v>
+      </c>
+      <c r="D10" s="49">
+        <v>0</v>
+      </c>
+      <c r="E10" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="73"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <f>SUM(B11:E11)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>SUM(B3,B5,B7,B9,B11)</f>
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:E12" si="1">SUM(C3,C5,C7,C9,C11)</f>
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="27">
+        <v>2</v>
+      </c>
+      <c r="D14" s="27">
+        <v>3</v>
+      </c>
+      <c r="E14" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="30">
+        <v>2</v>
+      </c>
+      <c r="C15" s="28">
+        <v>4</v>
+      </c>
+      <c r="D15" s="28">
+        <v>5</v>
+      </c>
+      <c r="E15" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="24">
+        <v>5</v>
+      </c>
+      <c r="C16" s="25">
+        <v>3</v>
+      </c>
+      <c r="D16" s="25">
+        <v>4</v>
+      </c>
+      <c r="E16" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="24">
+        <v>3</v>
+      </c>
+      <c r="C17" s="25">
+        <v>1</v>
+      </c>
+      <c r="D17" s="25">
+        <v>2</v>
+      </c>
+      <c r="E17" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="24">
+        <v>7</v>
+      </c>
+      <c r="C18" s="25">
+        <v>2</v>
+      </c>
+      <c r="D18" s="25">
+        <v>6</v>
+      </c>
+      <c r="E18" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="56">
+        <v>0</v>
+      </c>
+      <c r="C19" s="57">
+        <v>0</v>
+      </c>
+      <c r="D19" s="57">
+        <v>0</v>
+      </c>
+      <c r="E19" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="52">
+        <v>50</v>
+      </c>
+      <c r="C21" s="53">
+        <v>0</v>
+      </c>
+      <c r="D21" s="53">
+        <v>0</v>
+      </c>
+      <c r="E21" s="54">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>SUM(B21:E21)</f>
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>50</v>
+      </c>
+      <c r="E22" s="11">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F25" si="2">SUM(B22:E22)</f>
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="9">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
+        <v>50</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="9">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10">
+        <v>100</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="14">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>SUM(B21:B25)</f>
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:E26" si="3">SUM(C21:C25)</f>
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <f>SUMPRODUCT(B21:E25,B15:E19)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F36" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="77">
+        <v>50</v>
+      </c>
+      <c r="H36" s="78">
+        <v>100</v>
+      </c>
+      <c r="I36" s="78">
+        <v>100</v>
+      </c>
+      <c r="J36" s="79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F37" s="80">
+        <v>50</v>
+      </c>
+      <c r="G37" s="81">
+        <v>2</v>
+      </c>
+      <c r="H37" s="82">
+        <v>4</v>
+      </c>
+      <c r="I37" s="82">
+        <v>5</v>
+      </c>
+      <c r="J37" s="83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="84">
+        <v>100</v>
+      </c>
+      <c r="G38" s="85">
+        <v>5</v>
+      </c>
+      <c r="H38" s="86">
+        <v>3</v>
+      </c>
+      <c r="I38" s="86">
+        <v>4</v>
+      </c>
+      <c r="J38" s="87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F39" s="84">
+        <v>50</v>
+      </c>
+      <c r="G39" s="85">
+        <v>3</v>
+      </c>
+      <c r="H39" s="86">
+        <v>1</v>
+      </c>
+      <c r="I39" s="86">
+        <v>2</v>
+      </c>
+      <c r="J39" s="87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F40" s="84">
+        <v>100</v>
+      </c>
+      <c r="G40" s="85">
+        <v>7</v>
+      </c>
+      <c r="H40" s="86">
+        <v>2</v>
+      </c>
+      <c r="I40" s="86">
+        <v>6</v>
+      </c>
+      <c r="J40" s="87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="88">
+        <v>50</v>
+      </c>
+      <c r="G41" s="89">
+        <v>0</v>
+      </c>
+      <c r="H41" s="90">
+        <v>0</v>
+      </c>
+      <c r="I41" s="90">
+        <v>0</v>
+      </c>
+      <c r="J41" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D46" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="93">
+        <v>1</v>
+      </c>
+      <c r="F46" s="94">
+        <v>2</v>
+      </c>
+      <c r="G46" s="94">
+        <v>3</v>
+      </c>
+      <c r="H46" s="94">
+        <v>4</v>
+      </c>
+      <c r="I46" s="95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D47" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="96">
+        <v>2</v>
+      </c>
+      <c r="F47" s="97">
+        <v>4</v>
+      </c>
+      <c r="G47" s="97">
+        <v>4</v>
+      </c>
+      <c r="H47" s="97">
+        <v>5</v>
+      </c>
+      <c r="I47" s="98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D48" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="96">
+        <v>5</v>
+      </c>
+      <c r="F48" s="97">
+        <v>3</v>
+      </c>
+      <c r="G48" s="97">
+        <v>3</v>
+      </c>
+      <c r="H48" s="97">
+        <v>4</v>
+      </c>
+      <c r="I48" s="98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D49" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="96">
+        <v>3</v>
+      </c>
+      <c r="F49" s="97">
+        <v>1</v>
+      </c>
+      <c r="G49" s="97">
+        <v>1</v>
+      </c>
+      <c r="H49" s="97">
+        <v>2</v>
+      </c>
+      <c r="I49" s="98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D50" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="96">
+        <v>7</v>
+      </c>
+      <c r="F50" s="97">
+        <v>2</v>
+      </c>
+      <c r="G50" s="97">
+        <v>1000</v>
+      </c>
+      <c r="H50" s="97">
+        <v>6</v>
+      </c>
+      <c r="I50" s="98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="89">
+        <v>0</v>
+      </c>
+      <c r="F51" s="90">
+        <v>0</v>
+      </c>
+      <c r="G51" s="90">
+        <v>0</v>
+      </c>
+      <c r="H51" s="90">
+        <v>0</v>
+      </c>
+      <c r="I51" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E53" s="52">
+        <v>50</v>
+      </c>
+      <c r="F53" s="53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="53">
+        <v>0</v>
+      </c>
+      <c r="H53" s="53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="54">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f>SUM(E53:I53)</f>
+        <v>50</v>
+      </c>
+      <c r="K53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
+      <c r="F54" s="10">
+        <v>0</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0</v>
+      </c>
+      <c r="H54" s="10">
+        <v>50</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ref="J54:J57" si="4">SUM(E54:I54)</f>
+        <v>50</v>
+      </c>
+      <c r="K54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="10">
+        <v>0</v>
+      </c>
+      <c r="G55" s="10">
+        <v>50</v>
+      </c>
+      <c r="H55" s="10">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
+      <c r="F56" s="10">
+        <v>50</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <v>50</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="14">
+        <v>0</v>
+      </c>
+      <c r="F57" s="16">
+        <v>0</v>
+      </c>
+      <c r="G57" s="16">
+        <v>0</v>
+      </c>
+      <c r="H57" s="16">
+        <v>0</v>
+      </c>
+      <c r="I57" s="17">
+        <v>50</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f>SUM(E53:E57)</f>
+        <v>50</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58:I58" si="5">SUM(F53:F57)</f>
+        <v>50</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>50</v>
+      </c>
+      <c r="F59">
+        <v>50</v>
+      </c>
+      <c r="G59">
+        <v>50</v>
+      </c>
+      <c r="H59">
+        <v>100</v>
+      </c>
+      <c r="I59">
+        <v>50</v>
+      </c>
+      <c r="K59">
+        <f>SUMPRODUCT(E53:I57,E47:I51)</f>
+        <v>750</v>
+      </c>
+      <c r="L59">
+        <f>6*50</f>
+        <v>300</v>
+      </c>
+      <c r="M59" t="s">
+        <v>224</v>
+      </c>
+      <c r="N59">
+        <f>K59+L59</f>
+        <v>1050</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F11" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H16"/>
+      <selection activeCell="A6" sqref="A6:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,8 +4074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,10 +4231,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,7 +4242,7 @@
     <col min="1" max="1" width="20.7109375" style="41" customWidth="1"/>
     <col min="2" max="3" width="3.7109375" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="41" customWidth="1"/>
-    <col min="5" max="5" width="4" style="41" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="41" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="41" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="41" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="41"/>
@@ -2250,14 +4251,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="41" t="s">
         <v>68</v>
       </c>
@@ -2279,7 +4280,9 @@
       <c r="D2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="18" t="s">
+        <v>171</v>
+      </c>
       <c r="F2" s="22"/>
       <c r="G2" s="41">
         <v>0</v>
@@ -2303,7 +4306,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="12">
-        <f t="shared" ref="D3:D5" si="0">SUMPRODUCT(B$7:C$7,B3:C3)</f>
+        <f t="shared" ref="D3:D5" si="0">SUMPRODUCT(B$8:C$8,B3:C3)</f>
         <v>30</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -2375,49 +4378,61 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+    </row>
+    <row r="7" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12">
-        <v>10</v>
+        <v>168</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B9" s="15">
         <v>8</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C9" s="15">
         <v>5</v>
       </c>
-      <c r="D8" s="15">
-        <f>SUMPRODUCT(B$7:C$7,B8:C8)</f>
-        <v>50</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>167</v>
-      </c>
+      <c r="D9" s="15">
+        <f>SUMPRODUCT(B$8:C$8,B9:C9)</f>
+        <v>50</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4320,799 +6335,1627 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="29">
-        <v>50</v>
-      </c>
-      <c r="C1" s="27">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="101" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>50</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>50</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>50</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>50</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>50</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>50</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="27">
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="6">
+        <v>50</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" s="6">
+        <v>50</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="6">
+        <v>50</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="6">
         <v>100</v>
       </c>
-      <c r="E1" s="33">
+      <c r="E53" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="6">
+        <v>50</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="6">
+        <v>50</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="6">
+        <v>50</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="6">
+        <v>50</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="6">
         <v>100</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="E58" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="5">
+        <v>50</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="103" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="M1" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="R1" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" s="29">
-        <v>50</v>
-      </c>
-      <c r="T1" s="27">
-        <v>50</v>
-      </c>
-      <c r="U1" s="27">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>8</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H14" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="4">
+        <v>50</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H20" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>50</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4</v>
+      </c>
+      <c r="F24" s="4">
+        <v>7</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="4">
+        <v>50</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>3</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>995</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H26" s="4">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="4">
+        <v>50</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>6</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>9</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H29" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>6</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H30" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <v>50</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="H36" s="102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4">
+        <v>50</v>
+      </c>
+      <c r="E38" s="4">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4">
+        <v>50</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="4">
+        <v>50</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+      <c r="F39" s="4">
+        <v>50</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4">
+        <v>50</v>
+      </c>
+      <c r="E40" s="4">
+        <v>5</v>
+      </c>
+      <c r="F40" s="4">
+        <v>50</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="4">
         <v>100</v>
       </c>
-      <c r="V1" s="33">
+      <c r="E41" s="4">
+        <v>6</v>
+      </c>
+      <c r="F41" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="73">
-        <v>50</v>
-      </c>
-      <c r="B2" s="30">
-        <v>2</v>
-      </c>
-      <c r="C2" s="28">
-        <v>4</v>
-      </c>
-      <c r="D2" s="28">
-        <v>5</v>
-      </c>
-      <c r="E2" s="32">
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4">
+        <v>50</v>
+      </c>
+      <c r="E42" s="4">
         <v>8</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="52">
-        <f>B3</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="53">
-        <f>C3</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="53">
-        <f>D3</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="54">
-        <f>E3</f>
-        <v>50</v>
-      </c>
-      <c r="M2" s="52">
-        <f>S3</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="53">
-        <f t="shared" ref="N2:P2" si="0">T3</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P2" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R2" s="73">
-        <v>50</v>
-      </c>
-      <c r="S2" s="30">
-        <v>2</v>
-      </c>
-      <c r="T2" s="28">
-        <v>4</v>
-      </c>
-      <c r="U2" s="28">
-        <v>5</v>
-      </c>
-      <c r="V2" s="32">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F7" si="1">SUM(B3:E3)</f>
-        <v>50</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="9">
-        <f>B5</f>
-        <v>50</v>
-      </c>
-      <c r="I3" s="10">
-        <f>C5</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <f>D5</f>
-        <v>50</v>
-      </c>
-      <c r="K3" s="11">
-        <f>E5</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="9">
-        <f>S5</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="10">
-        <f t="shared" ref="N3:P3" si="2">T5</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="69"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="36"/>
-      <c r="W3">
-        <f t="shared" ref="W3" si="3">SUM(S3:V3)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="69">
+      <c r="F42" s="4">
+        <v>50</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4">
+        <v>50</v>
+      </c>
+      <c r="E43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>50</v>
+      </c>
+      <c r="G43" s="4">
+        <v>50</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4">
+        <v>50</v>
+      </c>
+      <c r="E44" s="4">
+        <v>-2</v>
+      </c>
+      <c r="F44" s="4">
+        <v>50</v>
+      </c>
+      <c r="G44" s="4">
+        <v>50</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4">
+        <v>50</v>
+      </c>
+      <c r="E45" s="4">
+        <v>-4</v>
+      </c>
+      <c r="F45" s="4">
+        <v>50</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4">
         <v>100</v>
       </c>
-      <c r="B4" s="24">
-        <v>5</v>
-      </c>
-      <c r="C4" s="25">
-        <v>3</v>
-      </c>
-      <c r="D4" s="25">
-        <v>4</v>
-      </c>
-      <c r="E4" s="26">
-        <v>6</v>
-      </c>
-      <c r="H4" s="9">
-        <f>B7</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <f>C7</f>
-        <v>50</v>
-      </c>
-      <c r="J4" s="10">
-        <f>D7</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
-        <f>E7</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <f>S7</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <f t="shared" ref="N4:P4" si="4">T7</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="69">
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
         <v>100</v>
       </c>
-      <c r="S4" s="24">
-        <v>5</v>
-      </c>
-      <c r="T4" s="25">
-        <v>3</v>
-      </c>
-      <c r="U4" s="25">
-        <v>4</v>
-      </c>
-      <c r="V4" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="34">
-        <v>50</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35">
-        <v>50</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H5" s="9">
-        <f>B9</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
-        <f>C9</f>
-        <v>50</v>
-      </c>
-      <c r="J5" s="10">
-        <f>D9</f>
-        <v>50</v>
-      </c>
-      <c r="K5" s="11">
-        <f>E9</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <f>S9</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <f t="shared" ref="N5:P5" si="5">T9</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="69"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="36"/>
-      <c r="W5">
-        <f t="shared" ref="W5" si="6">SUM(S5:V5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69">
-        <v>50</v>
-      </c>
-      <c r="B6" s="24">
-        <v>3</v>
-      </c>
-      <c r="C6" s="25">
-        <v>1</v>
-      </c>
-      <c r="D6" s="25">
-        <v>2</v>
-      </c>
-      <c r="E6" s="26">
-        <v>4</v>
-      </c>
-      <c r="H6" s="14">
-        <f>B11</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
-        <f>C11</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="16">
-        <f>D11</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="17">
-        <f>E11</f>
-        <v>50</v>
-      </c>
-      <c r="M6" s="14">
-        <f>S11</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
-        <f t="shared" ref="N6:P6" si="7">T11</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="69">
-        <v>50</v>
-      </c>
-      <c r="S6" s="24">
-        <v>3</v>
-      </c>
-      <c r="T6" s="25">
-        <v>1</v>
-      </c>
-      <c r="U6" s="25">
-        <v>2</v>
-      </c>
-      <c r="V6" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35">
-        <v>50</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="R7" s="69"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="36"/>
-      <c r="W7">
-        <f t="shared" ref="W7" si="8">SUM(S7:V7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
-        <v>100</v>
-      </c>
-      <c r="B8" s="24">
-        <v>7</v>
-      </c>
-      <c r="C8" s="25">
-        <v>2</v>
-      </c>
-      <c r="D8" s="25">
-        <v>6</v>
-      </c>
-      <c r="E8" s="26">
-        <v>9</v>
-      </c>
-      <c r="H8">
-        <f>E2*E3+B4*B5+D4*D5+C6*C7+C8*C9+D8*D9+E10*E11</f>
-        <v>1300</v>
-      </c>
-      <c r="R8" s="69">
-        <v>50</v>
-      </c>
-      <c r="S8" s="24">
-        <v>7</v>
-      </c>
-      <c r="T8" s="25">
-        <v>2</v>
-      </c>
-      <c r="U8" s="25">
-        <v>6</v>
-      </c>
-      <c r="V8" s="26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35">
-        <v>50</v>
-      </c>
-      <c r="D9" s="35">
-        <v>50</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9">
-        <f>SUM(B9:E9)</f>
-        <v>100</v>
-      </c>
-      <c r="R9" s="69"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="36"/>
-      <c r="W9">
-        <f>SUM(S9:V9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
-        <v>50</v>
-      </c>
-      <c r="B10" s="48">
-        <v>0</v>
-      </c>
-      <c r="C10" s="49">
-        <v>0</v>
-      </c>
-      <c r="D10" s="49">
-        <v>0</v>
-      </c>
-      <c r="E10" s="50">
-        <v>0</v>
-      </c>
-      <c r="R10" s="70">
-        <v>50</v>
-      </c>
-      <c r="S10" s="48">
-        <v>0</v>
-      </c>
-      <c r="T10" s="49">
-        <v>0</v>
-      </c>
-      <c r="U10" s="49">
-        <v>0</v>
-      </c>
-      <c r="V10" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39">
-        <v>50</v>
-      </c>
-      <c r="F11">
-        <f>SUM(B11:E11)</f>
-        <v>50</v>
-      </c>
-      <c r="R11" s="71"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="39"/>
-      <c r="W11">
-        <f>SUM(S11:V11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f>SUM(B3,B5,B7,B9,B11)</f>
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:E12" si="9">SUM(C3,C5,C7,C9,C11)</f>
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="S12">
-        <f>SUM(S3,S5,S7,S9,S11)</f>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f t="shared" ref="T12" si="10">SUM(T3,T5,T7,T9,T11)</f>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f t="shared" ref="U12" si="11">SUM(U3,U5,U7,U9,U11)</f>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f t="shared" ref="V12" si="12">SUM(V3,V5,V7,V9,V11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="29">
-        <v>1</v>
-      </c>
-      <c r="C14" s="27">
-        <v>2</v>
-      </c>
-      <c r="D14" s="27">
-        <v>3</v>
-      </c>
-      <c r="E14" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="30">
-        <v>2</v>
-      </c>
-      <c r="C15" s="28">
-        <v>4</v>
-      </c>
-      <c r="D15" s="28">
-        <v>5</v>
-      </c>
-      <c r="E15" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="24">
-        <v>5</v>
-      </c>
-      <c r="C16" s="25">
-        <v>3</v>
-      </c>
-      <c r="D16" s="25">
-        <v>4</v>
-      </c>
-      <c r="E16" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="24">
-        <v>3</v>
-      </c>
-      <c r="C17" s="25">
-        <v>1</v>
-      </c>
-      <c r="D17" s="25">
-        <v>2</v>
-      </c>
-      <c r="E17" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="24">
-        <v>7</v>
-      </c>
-      <c r="C18" s="25">
-        <v>2</v>
-      </c>
-      <c r="D18" s="25">
-        <v>6</v>
-      </c>
-      <c r="E18" s="26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="56">
-        <v>0</v>
-      </c>
-      <c r="C19" s="57">
-        <v>0</v>
-      </c>
-      <c r="D19" s="57">
-        <v>0</v>
-      </c>
-      <c r="E19" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="52">
-        <v>50</v>
-      </c>
-      <c r="C21" s="53">
-        <v>0</v>
-      </c>
-      <c r="D21" s="53">
-        <v>0</v>
-      </c>
-      <c r="E21" s="54">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <f>SUM(B21:E21)</f>
-        <v>50</v>
-      </c>
-      <c r="G21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="9">
-        <v>0</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0</v>
-      </c>
-      <c r="D22" s="10">
-        <v>50</v>
-      </c>
-      <c r="E22" s="11">
-        <v>50</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ref="F22:F25" si="13">SUM(B22:E22)</f>
-        <v>100</v>
-      </c>
-      <c r="G22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0</v>
-      </c>
-      <c r="D23" s="10">
-        <v>50</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="13"/>
-        <v>50</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
-        <v>0</v>
-      </c>
-      <c r="C24" s="10">
-        <v>100</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="G24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="14">
-        <v>0</v>
-      </c>
-      <c r="C25" s="16">
-        <v>0</v>
-      </c>
-      <c r="D25" s="16">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
-        <v>50</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="13"/>
-        <v>50</v>
-      </c>
-      <c r="G25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <f>SUM(B21:B25)</f>
-        <v>50</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ref="C26:E26" si="14">SUM(C21:C25)</f>
-        <v>100</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="F26">
-        <f>SUMPRODUCT(B21:E25,B15:E19)</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>50</v>
-      </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-      <c r="D27">
-        <v>100</v>
-      </c>
-      <c r="E27">
-        <v>100</v>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
+        <v>50</v>
+      </c>
+      <c r="E47" s="2">
+        <v>-8</v>
+      </c>
+      <c r="F47" s="2">
+        <v>50</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="R6:R7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="F11" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>